--- a/data/metadata/sgsh 6 month behavioural metadata.xlsx
+++ b/data/metadata/sgsh 6 month behavioural metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewan Gerken\Box Sync\2020 - PhD\MPS III\Behaviour\sgsh 6 month behaviour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karissabarthelson/Documents/MPSIII_zebrafish_Ymaze/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8DE76C-6E75-49AC-BE22-0AEB291F75FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2F347-8FA6-6848-B711-15D699C3BF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1CBBD9C5-4757-634B-8217-DBDCED02CCD6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{1CBBD9C5-4757-634B-8217-DBDCED02CCD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="27">
   <si>
     <t>Day</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -682,20 +685,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE2261E-3219-3A41-A228-8BF720AF485A}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="73" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="7" width="16.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="20.58203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -724,7 +727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -751,7 +754,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -778,7 +781,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -805,7 +808,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -832,7 +835,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -860,7 +863,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -888,7 +891,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -917,7 +920,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1033,7 +1036,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>9</v>
@@ -1091,7 +1094,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1122,7 +1125,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1151,7 +1154,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1209,7 +1212,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1238,7 +1241,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1267,7 +1270,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1296,7 +1299,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1325,7 +1328,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1354,7 +1357,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1383,7 +1386,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1441,7 +1444,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1557,7 +1560,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1586,7 +1589,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1644,7 +1647,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1673,7 +1676,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1702,7 +1705,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1731,7 +1734,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1760,7 +1763,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -1818,7 +1821,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1847,7 +1850,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -1876,7 +1879,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1905,7 +1908,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -1934,7 +1937,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -1963,7 +1966,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -1992,7 +1995,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -2021,7 +2024,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -2050,7 +2053,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -2079,7 +2082,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -2108,7 +2111,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -2137,7 +2140,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -2167,7 +2170,7 @@
       <c r="K51" s="2"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -2197,7 +2200,7 @@
       <c r="K52" s="2"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -2225,7 +2228,7 @@
       <c r="I53" s="5"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -2254,7 +2257,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -2283,7 +2286,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -2312,7 +2315,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -2341,7 +2344,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -2370,7 +2373,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -2399,7 +2402,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -2428,7 +2431,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -2457,7 +2460,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -2486,7 +2489,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -2515,7 +2518,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -2544,7 +2547,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -2573,7 +2576,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -2631,7 +2634,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -2689,7 +2692,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -2718,7 +2721,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -2747,7 +2750,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -2805,7 +2808,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -2863,7 +2866,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -2921,7 +2924,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -2950,7 +2953,7 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -2979,7 +2982,7 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -3008,7 +3011,7 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -3037,7 +3040,7 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -3066,7 +3069,7 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -3095,7 +3098,7 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -3124,7 +3127,7 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -3153,7 +3156,7 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -3182,7 +3185,7 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -3211,7 +3214,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -3240,7 +3243,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -3269,7 +3272,7 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -3298,7 +3301,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -3327,7 +3330,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -3385,7 +3388,7 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -3414,7 +3417,7 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -3472,7 +3475,7 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -3501,7 +3504,7 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -3530,7 +3533,7 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -3559,7 +3562,7 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -3588,7 +3591,7 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -3617,7 +3620,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -3646,7 +3649,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -3675,7 +3678,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -3704,7 +3707,7 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -3733,7 +3736,7 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3746,7 +3749,7 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3759,7 +3762,7 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3772,7 +3775,7 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3785,55 +3788,55 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="113" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="114" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="115" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="116" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="117" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="118" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="119" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="120" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="121" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="15:16" ht="20" x14ac:dyDescent="0.4">
+    <row r="122" spans="15:16" ht="20" x14ac:dyDescent="0.2">
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
